--- a/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="102">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -211,13 +211,10 @@
     <t xml:space="preserve">Эсполон Бланко - 0.7л</t>
   </si>
   <si>
-    <t xml:space="preserve">Espolon Reposado - 0,7L</t>
+    <t xml:space="preserve">Espolon Reposado - 0.7L</t>
   </si>
   <si>
     <t xml:space="preserve">Эсполон Репосадо - 0.7л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espolon Reposado - 0.7L</t>
   </si>
   <si>
     <t xml:space="preserve">Available Bushmills</t>
@@ -509,27 +506,27 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="28" min="24" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
@@ -1063,7 +1060,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>721059707510</v>
@@ -1126,10 +1123,10 @@
         <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -1146,7 +1143,7 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>47</v>
@@ -1201,10 +1198,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
@@ -1215,7 +1212,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>8004160521308</v>
@@ -1278,10 +1275,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>44</v>
@@ -1292,7 +1289,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>8004160227606</v>
@@ -1355,10 +1352,10 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>44</v>
@@ -1369,7 +1366,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>8000020000280</v>
@@ -1432,10 +1429,10 @@
         <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
@@ -1446,7 +1443,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>8000020005285</v>
@@ -1509,10 +1506,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>44</v>
@@ -1523,7 +1520,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>8000020000013</v>
@@ -1586,10 +1583,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
@@ -1600,7 +1597,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>8000020000020</v>
@@ -1663,10 +1660,10 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>44</v>
@@ -1683,7 +1680,7 @@
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>47</v>
@@ -1696,10 +1693,10 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -1738,10 +1735,10 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>44</v>
@@ -1752,10 +1749,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>45</v>
@@ -1773,10 +1770,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="7"/>
       <c r="U16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V16" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1815,10 +1812,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>44</v>
@@ -1829,10 +1826,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>45</v>
@@ -1850,10 +1847,10 @@
       <c r="S17" s="3"/>
       <c r="T17" s="7"/>
       <c r="U17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1892,10 +1889,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>44</v>
@@ -1912,7 +1909,7 @@
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>47</v>
@@ -1925,10 +1922,10 @@
       <c r="S18" s="3"/>
       <c r="T18" s="7"/>
       <c r="U18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V18" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -1967,10 +1964,10 @@
         <v>41</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>44</v>
@@ -1987,7 +1984,7 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>47</v>
@@ -2000,10 +1997,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="7"/>
       <c r="U19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V19" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2042,10 +2039,10 @@
         <v>41</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>44</v>
@@ -2056,10 +2053,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>45</v>
@@ -2077,10 +2074,10 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V20" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>

--- a/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
@@ -226,16 +226,16 @@
     <t xml:space="preserve">Bushmills</t>
   </si>
   <si>
-    <t xml:space="preserve">Mondoro Asti - 0.75L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мондоро Асти - 0.75л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondoro Prosecco - 0.75L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мондоро Просекко - 0.75л</t>
+    <t xml:space="preserve">Mondoro Bruit - 0.75L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мондоро Брют - 0.75л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondoro Rose - 0.75L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мондоро Розе - 0.75л</t>
   </si>
   <si>
     <t xml:space="preserve">Cinzano Asti - 0.75L</t>
@@ -283,10 +283,10 @@
     <t xml:space="preserve">Активация: Игристое вино</t>
   </si>
   <si>
-    <t xml:space="preserve">Cinzano Asti - 0.75L GP, Cinzano Prosecco - 0.75L, Mondoro Asti - 0.75L, Mondoro Asti - 0.75L GP, Mondoro Brut - 0.75L, Mondoro Prosecco - 0.75L, Mondoro Rose - 0.75L, Cinzano Rose - 0.75L, Cinzano Asti - 0.75L, Cinzano Prosecco - 0.75L GP, Mondoro Brut - 0.75L GP, Mondoro Prosecco - 0.75L GP, Mondoro Rose - 0.75L GP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8000020006763, 8000020005285, 8004160521308, 8004160522305, 8004160222601, 8004160227606, 8004160223608, 8000020006381, 8000020000280, 8000020006756, 8004160225602, 8004160228603, 8004160226609</t>
+    <t xml:space="preserve">Cinzano Asti - 0.75L GP, Cinzano Prosecco - 0.75L, Mondoro Asti - 0.75L, Mondoro Asti - 0.75L GP, Mondoro Brut - 0.75L, Mondoro Prosecco - 0.75L, Mondoro Rose - 0.75L, Cinzano Rose - 0.75L, Cinzano Asti - 0.75L, Cinzano Prosecco - 0.75L GP, Mondoro Brut - 0.75L GP, Mondoro Prosecco - 0.75L GP, Mondoro Rose - 0.75L GP , Mondoro Bruit - 0.75L, Mondoro Rose - 0.75L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000020006763, 8000020005285, 8004160521308, 8004160522305, 8004160222601, 8004160227606, 8004160223608, 8000020006381, 8000020000280, 8000020006756, 8004160225602, 8004160228603, 8004160226609, 8004160222601, 8004160223608</t>
   </si>
   <si>
     <t xml:space="preserve">Activation Vermouth</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Активация: Виски</t>
   </si>
   <si>
-    <t xml:space="preserve">Bushmills, Old Smuggler, Wild Turkey</t>
+    <t xml:space="preserve">Bushmills, Wild Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">Activation Tequila</t>
@@ -404,7 +404,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,8 +428,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,7 +466,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,22 +506,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -505,34 +530,38 @@
   </sheetPr>
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="28" min="24" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -654,7 +683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -713,7 +742,7 @@
       <c r="AB2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="6" t="n">
+      <c r="AC2" s="8" t="n">
         <v>0.1</v>
       </c>
       <c r="AD2" s="3"/>
@@ -729,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -788,7 +817,7 @@
       <c r="AB3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="6" t="n">
+      <c r="AC3" s="8" t="n">
         <v>0.15</v>
       </c>
       <c r="AD3" s="3"/>
@@ -804,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -828,7 +857,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="K4" s="4" t="n">
@@ -865,8 +894,8 @@
       <c r="AB4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="6" t="n">
-        <v>0.03</v>
+      <c r="AC4" s="8" t="n">
+        <v>0.04</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -881,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -942,8 +971,8 @@
       <c r="AB5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="6" t="n">
-        <v>0.03</v>
+      <c r="AC5" s="8" t="n">
+        <v>0.04</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
@@ -958,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1019,8 +1048,8 @@
       <c r="AB6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="6" t="n">
-        <v>0.03</v>
+      <c r="AC6" s="8" t="n">
+        <v>0.04</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
@@ -1035,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -1096,8 +1125,8 @@
       <c r="AB7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC7" s="6" t="n">
-        <v>0.03</v>
+      <c r="AC7" s="8" t="n">
+        <v>0.04</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -1112,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1171,7 +1200,7 @@
       <c r="AB8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC8" s="6" t="n">
+      <c r="AC8" s="8" t="n">
         <v>0.02</v>
       </c>
       <c r="AD8" s="3"/>
@@ -1187,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1197,10 +1226,10 @@
       <c r="C9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1211,11 +1240,11 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>8004160521308</v>
+      <c r="K9" s="11" t="n">
+        <v>8004160222601</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>45</v>
@@ -1248,8 +1277,8 @@
       <c r="AB9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC9" s="6" t="n">
-        <v>0.05</v>
+      <c r="AC9" s="8" t="n">
+        <v>0.02</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1264,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -1274,10 +1303,10 @@
       <c r="C10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1288,11 +1317,11 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="4" t="n">
-        <v>8004160227606</v>
+      <c r="K10" s="13" t="n">
+        <v>8004160223608</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>45</v>
@@ -1325,8 +1354,8 @@
       <c r="AB10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" s="6" t="n">
-        <v>0.05</v>
+      <c r="AC10" s="8" t="n">
+        <v>0.02</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -1341,7 +1370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -1402,8 +1431,8 @@
       <c r="AB11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC11" s="6" t="n">
-        <v>0.02</v>
+      <c r="AC11" s="8" t="n">
+        <v>0.03</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1418,7 +1447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -1479,8 +1508,8 @@
       <c r="AB12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC12" s="6" t="n">
-        <v>0.02</v>
+      <c r="AC12" s="8" t="n">
+        <v>0.03</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1495,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -1556,7 +1585,7 @@
       <c r="AB13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC13" s="6" t="n">
+      <c r="AC13" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="AD13" s="3"/>
@@ -1572,7 +1601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -1633,7 +1662,7 @@
       <c r="AB14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AC14" s="6" t="n">
+      <c r="AC14" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="AD14" s="3"/>
@@ -1649,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -1668,8 +1697,8 @@
       <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>4</v>
+      <c r="G15" s="14" t="n">
+        <v>6</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1692,10 +1721,10 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="V15" s="15" t="s">
         <v>84</v>
       </c>
       <c r="W15" s="3"/>
@@ -1724,7 +1753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -1743,15 +1772,15 @@
       <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>6</v>
+      <c r="G16" s="14" t="n">
+        <v>4</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="17" t="s">
         <v>88</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -1769,10 +1798,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="9" t="s">
+      <c r="U16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V16" s="9" t="s">
+      <c r="V16" s="15" t="s">
         <v>84</v>
       </c>
       <c r="W16" s="3"/>
@@ -1801,7 +1830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -1820,15 +1849,15 @@
       <c r="F17" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="17" t="s">
         <v>92</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -1846,10 +1875,10 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="15" t="s">
         <v>84</v>
       </c>
       <c r="W17" s="3"/>
@@ -1878,7 +1907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -1897,8 +1926,8 @@
       <c r="F18" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>4</v>
+      <c r="G18" s="12" t="n">
+        <v>5</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1908,7 +1937,7 @@
         <v>45</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="18" t="s">
         <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -1921,10 +1950,10 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="15" t="s">
         <v>84</v>
       </c>
       <c r="W18" s="3"/>
@@ -1953,7 +1982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -1972,8 +2001,8 @@
       <c r="F19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
+      <c r="G19" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1996,10 +2025,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="9" t="s">
+      <c r="U19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="15" t="s">
         <v>84</v>
       </c>
       <c r="W19" s="3"/>
@@ -2028,7 +2057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -2052,10 +2081,10 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="11" t="s">
         <v>101</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -2073,10 +2102,10 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="9" t="s">
+      <c r="U20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="15" t="s">
         <v>84</v>
       </c>
       <c r="W20" s="3"/>
@@ -2108,7 +2137,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="102">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -157,10 +157,10 @@
     <t xml:space="preserve">number of facings</t>
   </si>
   <si>
+    <t xml:space="preserve">Campari</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campari</t>
   </si>
   <si>
     <t xml:space="preserve">OR</t>
@@ -531,31 +531,31 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="28" min="24" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
@@ -708,13 +708,15 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="L2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>47</v>
@@ -783,9 +785,11 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -864,7 +868,7 @@
         <v>8000040500036</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="3"/>
@@ -941,7 +945,7 @@
         <v>8000040500012</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="3"/>
@@ -1018,7 +1022,7 @@
         <v>721059707503</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1095,7 +1099,7 @@
         <v>721059707510</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1166,9 +1170,11 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="L8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -1247,7 +1253,7 @@
         <v>8004160222601</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1324,7 +1330,7 @@
         <v>8004160223608</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1401,7 +1407,7 @@
         <v>8000020000280</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1478,7 +1484,7 @@
         <v>8000020005285</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1555,7 +1561,7 @@
         <v>8000020000013</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1632,7 +1638,7 @@
         <v>8000020000020</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1703,9 +1709,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -1784,7 +1792,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1861,7 +1869,7 @@
         <v>92</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1932,9 +1940,11 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="18" t="s">
@@ -2007,9 +2017,11 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
@@ -2088,7 +2100,7 @@
         <v>101</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>

--- a/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Spirits 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -344,7 +344,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -377,6 +377,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -433,7 +440,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,6 +478,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,6 +531,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,30 +606,30 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="24" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="34.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.995951417004"/>
+    <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.5627530364372"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.2793522267206"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="24" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,8 +1012,8 @@
       <c r="J5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>8000040500012</v>
+      <c r="K5" s="10" t="n">
+        <v>4607174573314</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>46</v>
@@ -1232,10 +1303,10 @@
       <c r="C9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1246,10 +1317,10 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="12" t="n">
         <v>8004160222601</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1309,10 +1380,10 @@
       <c r="C10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1323,10 +1394,10 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="14" t="n">
         <v>8004160223608</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -1703,7 +1774,7 @@
       <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="14" t="n">
+      <c r="G15" s="15" t="n">
         <v>6</v>
       </c>
       <c r="H15" s="3"/>
@@ -1729,10 +1800,10 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="16" t="s">
         <v>84</v>
       </c>
       <c r="W15" s="3"/>
@@ -1780,15 +1851,15 @@
       <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="14" t="n">
+      <c r="G16" s="15" t="n">
         <v>4</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>88</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -1806,10 +1877,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="16" t="s">
         <v>84</v>
       </c>
       <c r="W16" s="3"/>
@@ -1857,15 +1928,15 @@
       <c r="F17" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="13" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>92</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -1883,10 +1954,10 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="V17" s="15" t="s">
+      <c r="V17" s="16" t="s">
         <v>84</v>
       </c>
       <c r="W17" s="3"/>
@@ -1934,20 +2005,20 @@
       <c r="F18" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="13" t="n">
         <v>5</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>95</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="19" t="s">
         <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -1960,10 +2031,10 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="15" t="s">
+      <c r="U18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="V18" s="15" t="s">
+      <c r="V18" s="16" t="s">
         <v>84</v>
       </c>
       <c r="W18" s="3"/>
@@ -2011,7 +2082,7 @@
       <c r="F19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="13" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="3"/>
@@ -2037,10 +2108,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="15" t="s">
+      <c r="U19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="V19" s="15" t="s">
+      <c r="V19" s="16" t="s">
         <v>84</v>
       </c>
       <c r="W19" s="3"/>
@@ -2093,10 +2164,10 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>101</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -2114,10 +2185,10 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="15" t="s">
+      <c r="U20" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="V20" s="15" t="s">
+      <c r="V20" s="16" t="s">
         <v>84</v>
       </c>
       <c r="W20" s="3"/>
